--- a/Pendientes/pendiente_para_zoho.xlsx
+++ b/Pendientes/pendiente_para_zoho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trabajado\Data_I\Semanario_AP\Tabla_pendientes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Semanario_AP\Pendientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69960ED7-B9C0-4B2F-89E2-7E9B43F60861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB69E5A9-244D-4C7E-BF79-325E2B9B4A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pendientes" sheetId="1" r:id="rId1"/>
@@ -1020,64 +1020,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1203,16 +1145,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thick">
+        <right style="thin">
           <color theme="0"/>
-        </bottom>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <right style="thin">
+        <bottom style="thick">
           <color theme="0"/>
-        </right>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1250,6 +1192,64 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1264,40 +1264,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87A3902B-6E5E-4567-8FE9-83F21463F968}" name="Tabla3" displayName="Tabla3" ref="A1:F121" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87A3902B-6E5E-4567-8FE9-83F21463F968}" name="Tabla3" displayName="Tabla3" ref="A1:F121" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A1:F121" xr:uid="{87A3902B-6E5E-4567-8FE9-83F21463F968}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1311C931-7AF8-44D2-BB79-5D695E74EF3B}" name="cod_AP"/>
-    <tableColumn id="2" xr3:uid="{127C08E1-002A-41D9-9592-3CB8C99FB495}" name="(ha) Pendiente 0-15%" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{85CCDBCA-A516-4247-919D-A221948D1F50}" name="(ha) Pendiente 15-30%" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{732A82DA-E669-4FC2-9E6F-549489D63F43}" name="(ha) Pendiente 30-45%" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C030711E-C07E-4767-BF73-EFAC06ABFF13}" name="(ha) Pendiente 45-60%" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{9860984C-267D-4D97-AD1F-A1BD5FF1D506}" name="(ha) Pendiente mayor que 60%" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{127C08E1-002A-41D9-9592-3CB8C99FB495}" name="(ha) Pendiente 0-15%" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{85CCDBCA-A516-4247-919D-A221948D1F50}" name="(ha) Pendiente 15-30%" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{732A82DA-E669-4FC2-9E6F-549489D63F43}" name="(ha) Pendiente 30-45%" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{C030711E-C07E-4767-BF73-EFAC06ABFF13}" name="(ha) Pendiente 45-60%" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{9860984C-267D-4D97-AD1F-A1BD5FF1D506}" name="(ha) Pendiente mayor que 60%" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8737086F-33C0-4593-AA69-AC99A782B1AF}" name="Tabla2" displayName="Tabla2" ref="A1:E121" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:E121" xr:uid="{8737086F-33C0-4593-AA69-AC99A782B1AF}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="WDPA-025"/>
-        <filter val="WDPA-051"/>
-        <filter val="WDPA-064"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8737086F-33C0-4593-AA69-AC99A782B1AF}" name="Tabla2" displayName="Tabla2" ref="A1:E121" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E121" xr:uid="{8737086F-33C0-4593-AA69-AC99A782B1AF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E121">
     <sortCondition ref="C1:C121"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9CEA505F-1DD2-4C09-8821-E19024B0AF7C}" name="Name_AP" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{FA1F42D2-A921-41B3-AB71-A48BC44868F4}" name="Designa" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{DC754F5C-EE90-40A2-9299-89ACDCD0BEBC}" name="cod_AP" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{54108605-F185-4E10-BE8C-9F9764632507}" name="Ha_AP" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{BA2079FE-0F3D-4EED-A5E4-5F88B2658F02}" name="ID_AP_Data" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{9CEA505F-1DD2-4C09-8821-E19024B0AF7C}" name="Name_AP" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FA1F42D2-A921-41B3-AB71-A48BC44868F4}" name="Designa" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DC754F5C-EE90-40A2-9299-89ACDCD0BEBC}" name="cod_AP" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{54108605-F185-4E10-BE8C-9F9764632507}" name="Ha_AP" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{BA2079FE-0F3D-4EED-A5E4-5F88B2658F02}" name="ID_AP_Data" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1626,19 +1618,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1650,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1698,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1718,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1778,7 +1770,7 @@
         <v>478.87416209333333</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1798,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1818,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1838,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1858,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1878,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1898,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1918,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1938,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1958,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1978,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1998,7 +1990,7 @@
         <v>76.119011790000016</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2018,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2038,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2058,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2078,7 +2070,7 @@
         <v>72.20543314686347</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2098,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2118,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2138,7 +2130,7 @@
         <v>140.83419543321301</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2158,7 +2150,7 @@
         <v>9807.8381556983913</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2178,7 +2170,7 @@
         <v>321.5660427804487</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2198,7 +2190,7 @@
         <v>4245.2750214627331</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2218,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2238,7 +2230,7 @@
         <v>341.65064204266668</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2258,7 +2250,7 @@
         <v>257.09511922528361</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2278,7 +2270,7 @@
         <v>3629.7982490371019</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2298,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2318,7 +2310,7 @@
         <v>2775.9957586384789</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2338,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2358,7 +2350,7 @@
         <v>2430.105793662256</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2378,7 +2370,7 @@
         <v>7109.431328412672</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2398,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2418,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2438,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2458,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2478,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2498,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2518,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2538,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2558,7 +2550,7 @@
         <v>452.1589975206897</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2578,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2598,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2618,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2638,7 +2630,7 @@
         <v>3429.0613346294122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2658,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2678,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2698,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2718,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2758,7 +2750,7 @@
         <v>151.75885499248119</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2778,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2798,7 +2790,7 @@
         <v>147.5592723330567</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2818,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2838,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2858,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2878,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2898,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2918,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2938,7 +2930,7 @@
         <v>1656.339558242722</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2958,7 +2950,7 @@
         <v>498.39514834565222</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2978,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2998,7 +2990,7 @@
         <v>522.27833609228912</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3018,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3038,7 +3030,7 @@
         <v>969.43167269999992</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3058,7 +3050,7 @@
         <v>939.1180505972419</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3078,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3098,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3118,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3138,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3158,7 +3150,7 @@
         <v>3130.2450913806342</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3178,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3198,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3218,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3238,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3258,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3278,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3298,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3318,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3338,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3358,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3378,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3398,7 +3390,7 @@
         <v>836.79317517996537</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3418,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3438,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3458,7 +3450,7 @@
         <v>155.2826136569231</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3478,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3498,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3518,7 +3510,7 @@
         <v>24515.106061418712</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3538,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3558,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3578,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3598,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3618,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3638,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3658,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3678,7 +3670,7 @@
         <v>241.9329491221053</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3698,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3718,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3738,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3758,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3778,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3798,7 +3790,7 @@
         <v>2128.0899306027782</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3818,7 +3810,7 @@
         <v>74.208791153413088</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3838,7 +3830,7 @@
         <v>29610.432690454531</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3858,7 +3850,7 @@
         <v>5415.8470143434351</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -3878,7 +3870,7 @@
         <v>2701.0905387440162</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3898,7 +3890,7 @@
         <v>9223.6007091209885</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3918,7 +3910,7 @@
         <v>1925.27383277788</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3938,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3958,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3978,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3998,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4018,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4038,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4071,20 +4063,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64720888-AB5C-4B97-9D26-77232F291026}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>126</v>
       </c>
@@ -4101,7 +4093,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>168</v>
       </c>
@@ -4118,7 +4110,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>169</v>
       </c>
@@ -4135,7 +4127,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>170</v>
       </c>
@@ -4152,7 +4144,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>243</v>
       </c>
@@ -4169,7 +4161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>248</v>
       </c>
@@ -4186,7 +4178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>254</v>
       </c>
@@ -4203,7 +4195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>250</v>
       </c>
@@ -4220,7 +4212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>163</v>
       </c>
@@ -4237,7 +4229,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>237</v>
       </c>
@@ -4254,7 +4246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>246</v>
       </c>
@@ -4271,7 +4263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>244</v>
       </c>
@@ -4288,7 +4280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>234</v>
       </c>
@@ -4305,7 +4297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>233</v>
       </c>
@@ -4322,7 +4314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>235</v>
       </c>
@@ -4339,7 +4331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>255</v>
       </c>
@@ -4356,7 +4348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>239</v>
       </c>
@@ -4373,7 +4365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>227</v>
       </c>
@@ -4390,7 +4382,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>238</v>
       </c>
@@ -4407,7 +4399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>253</v>
       </c>
@@ -4424,7 +4416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>228</v>
       </c>
@@ -4441,7 +4433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>251</v>
       </c>
@@ -4458,7 +4450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>256</v>
       </c>
@@ -4475,7 +4467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>242</v>
       </c>
@@ -4492,7 +4484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>257</v>
       </c>
@@ -4509,7 +4501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>240</v>
       </c>
@@ -4526,7 +4518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>138</v>
       </c>
@@ -4543,7 +4535,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>141</v>
       </c>
@@ -4560,7 +4552,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>142</v>
       </c>
@@ -4577,7 +4569,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>230</v>
       </c>
@@ -4594,7 +4586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>252</v>
       </c>
@@ -4611,7 +4603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>139</v>
       </c>
@@ -4628,7 +4620,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>229</v>
       </c>
@@ -4645,7 +4637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>137</v>
       </c>
@@ -4662,7 +4654,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>241</v>
       </c>
@@ -4679,7 +4671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>247</v>
       </c>
@@ -4696,7 +4688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>232</v>
       </c>
@@ -4713,7 +4705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>249</v>
       </c>
@@ -4730,7 +4722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>134</v>
       </c>
@@ -4747,7 +4739,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>231</v>
       </c>
@@ -4764,7 +4756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>189</v>
       </c>
@@ -4781,7 +4773,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>167</v>
       </c>
@@ -4798,7 +4790,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>165</v>
       </c>
@@ -4815,7 +4807,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>205</v>
       </c>
@@ -4832,7 +4824,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>208</v>
       </c>
@@ -4849,7 +4841,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>214</v>
       </c>
@@ -4866,7 +4858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>203</v>
       </c>
@@ -4883,7 +4875,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>207</v>
       </c>
@@ -4900,7 +4892,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>199</v>
       </c>
@@ -4917,7 +4909,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>211</v>
       </c>
@@ -4934,7 +4926,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>197</v>
       </c>
@@ -4951,7 +4943,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>192</v>
       </c>
@@ -4968,7 +4960,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>198</v>
       </c>
@@ -4985,7 +4977,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>224</v>
       </c>
@@ -5002,7 +4994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>216</v>
       </c>
@@ -5019,7 +5011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>200</v>
       </c>
@@ -5036,7 +5028,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>223</v>
       </c>
@@ -5053,7 +5045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>218</v>
       </c>
@@ -5070,7 +5062,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>202</v>
       </c>
@@ -5087,7 +5079,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>217</v>
       </c>
@@ -5104,7 +5096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>245</v>
       </c>
@@ -5121,7 +5113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>194</v>
       </c>
@@ -5138,7 +5130,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>225</v>
       </c>
@@ -5155,7 +5147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>193</v>
       </c>
@@ -5172,7 +5164,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>195</v>
       </c>
@@ -5189,7 +5181,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>222</v>
       </c>
@@ -5206,7 +5198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>236</v>
       </c>
@@ -5223,7 +5215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>204</v>
       </c>
@@ -5240,7 +5232,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>220</v>
       </c>
@@ -5257,7 +5249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>145</v>
       </c>
@@ -5274,7 +5266,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>206</v>
       </c>
@@ -5291,7 +5283,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>210</v>
       </c>
@@ -5308,7 +5300,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>226</v>
       </c>
@@ -5325,7 +5317,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>215</v>
       </c>
@@ -5342,7 +5334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>221</v>
       </c>
@@ -5359,7 +5351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>190</v>
       </c>
@@ -5376,7 +5368,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>213</v>
       </c>
@@ -5393,7 +5385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>212</v>
       </c>
@@ -5410,7 +5402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>140</v>
       </c>
@@ -5427,7 +5419,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>209</v>
       </c>
@@ -5444,7 +5436,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>196</v>
       </c>
@@ -5461,7 +5453,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>187</v>
       </c>
@@ -5478,7 +5470,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>191</v>
       </c>
@@ -5495,7 +5487,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>180</v>
       </c>
@@ -5512,7 +5504,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>176</v>
       </c>
@@ -5529,7 +5521,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>177</v>
       </c>
@@ -5546,7 +5538,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>174</v>
       </c>
@@ -5563,7 +5555,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>172</v>
       </c>
@@ -5580,7 +5572,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>173</v>
       </c>
@@ -5597,7 +5589,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>178</v>
       </c>
@@ -5614,7 +5606,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>175</v>
       </c>
@@ -5631,7 +5623,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>181</v>
       </c>
@@ -5648,7 +5640,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>184</v>
       </c>
@@ -5665,7 +5657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>201</v>
       </c>
@@ -5682,7 +5674,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>219</v>
       </c>
@@ -5699,7 +5691,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>183</v>
       </c>
@@ -5716,7 +5708,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>179</v>
       </c>
@@ -5733,7 +5725,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>182</v>
       </c>
@@ -5750,7 +5742,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>188</v>
       </c>
@@ -5767,7 +5759,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>185</v>
       </c>
@@ -5784,7 +5776,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>171</v>
       </c>
@@ -5801,7 +5793,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>144</v>
       </c>
@@ -5818,7 +5810,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>162</v>
       </c>
@@ -5835,7 +5827,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>159</v>
       </c>
@@ -5852,7 +5844,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>161</v>
       </c>
@@ -5869,7 +5861,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>160</v>
       </c>
@@ -5886,7 +5878,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>158</v>
       </c>
@@ -5903,7 +5895,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>157</v>
       </c>
@@ -5920,7 +5912,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>156</v>
       </c>
@@ -5937,7 +5929,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>155</v>
       </c>
@@ -5954,7 +5946,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>154</v>
       </c>
@@ -5971,7 +5963,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>153</v>
       </c>
@@ -5988,7 +5980,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>143</v>
       </c>
@@ -6005,7 +5997,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>151</v>
       </c>
@@ -6022,7 +6014,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>150</v>
       </c>
@@ -6039,7 +6031,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>132</v>
       </c>
@@ -6056,7 +6048,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>130</v>
       </c>
@@ -6073,7 +6065,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>149</v>
       </c>
@@ -6090,7 +6082,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>148</v>
       </c>
@@ -6107,7 +6099,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>147</v>
       </c>
@@ -6124,7 +6116,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>135</v>
       </c>
